--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdamV/Desktop/Bachelor/GitHub/Bachelor_Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B20BFD8-338A-4B58-A955-40D33E7C654B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786ECDBE-551B-E045-8031-B0105FB8907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24580" windowHeight="15540" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -1581,7 +1581,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="153">
   <si>
     <t>CommName</t>
   </si>
@@ -2037,6 +2037,9 @@
   </si>
   <si>
     <t>Reference Energy System</t>
+  </si>
+  <si>
+    <t>Heyy</t>
   </si>
 </sst>
 </file>
@@ -2743,14 +2746,14 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="33">
-    <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
+    <cellStyle name="20 % - Farve5" xfId="1" builtinId="46"/>
     <cellStyle name="20% - Accent5 2" xfId="21" xr:uid="{31757489-FEFA-449A-A288-159658577717}"/>
-    <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
-    <cellStyle name="Accent2" xfId="3" builtinId="33"/>
-    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="60 % - Farve2" xfId="2" builtinId="36"/>
+    <cellStyle name="Beregning" xfId="4" builtinId="22"/>
     <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Comma 2 2" xfId="22" xr:uid="{992F3F54-BB44-4021-B091-4DBD5F448EEB}"/>
-    <cellStyle name="Good" xfId="6" builtinId="26"/>
+    <cellStyle name="Farve2" xfId="3" builtinId="33"/>
+    <cellStyle name="God" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2767,7 +2770,6 @@
     <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="Normal 9 2 2" xfId="28" xr:uid="{35EF86F0-C879-4B2F-B6FC-19AD89FDFA92}"/>
     <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Percent" xfId="16" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Percent 2 2" xfId="30" xr:uid="{2FE97164-82E7-4FA2-8926-A7BFE3C6AA9F}"/>
     <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
@@ -2775,6 +2777,7 @@
     <cellStyle name="Percent 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Percent 4 2" xfId="32" xr:uid="{7844C6FD-8CE1-4C55-9B62-6B4D09A64D22}"/>
     <cellStyle name="Percent 5" xfId="29" xr:uid="{C2C75864-05DE-416D-AF41-9F9069182A66}"/>
+    <cellStyle name="Procent" xfId="16" builtinId="5"/>
     <cellStyle name="Standard_Sce_D_Extraction" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4101,29 +4104,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="P1" s="22" t="s">
         <v>111</v>
       </c>
@@ -4137,7 +4140,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
       <c r="C2" s="7"/>
       <c r="D2" s="40" t="s">
         <v>46</v>
@@ -4176,7 +4182,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="28" x14ac:dyDescent="0.15">
       <c r="C3" s="9"/>
       <c r="D3" s="41" t="s">
         <v>54</v>
@@ -4207,7 +4213,7 @@
       </c>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C4" s="89" t="s">
         <v>61</v>
       </c>
@@ -4222,7 +4228,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="42" t="s">
         <v>62</v>
       </c>
@@ -4260,7 +4266,7 @@
       <c r="M5" s="6"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="42" t="s">
         <v>64</v>
       </c>
@@ -4297,7 +4303,7 @@
       </c>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="42" t="s">
         <v>66</v>
       </c>
@@ -4335,7 +4341,7 @@
       <c r="M7" s="6"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="85" t="s">
         <v>142</v>
       </c>
@@ -4380,7 +4386,7 @@
       </c>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B9" s="35"/>
       <c r="C9" s="91" t="s">
         <v>68</v>
@@ -4396,7 +4402,7 @@
       <c r="L9" s="56"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B10" s="42" t="s">
         <v>69</v>
       </c>
@@ -4433,7 +4439,7 @@
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B11" s="42" t="s">
         <v>53</v>
       </c>
@@ -4470,7 +4476,7 @@
       </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B12" s="42" t="s">
         <v>72</v>
       </c>
@@ -4507,7 +4513,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B13" s="42" t="s">
         <v>74</v>
       </c>
@@ -4530,7 +4536,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="35"/>
       <c r="C14" s="55" t="s">
         <v>76</v>
@@ -4573,7 +4579,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B15" s="35"/>
       <c r="C15" s="91" t="s">
         <v>77</v>
@@ -4589,7 +4595,7 @@
       <c r="L15" s="56"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="42" t="s">
         <v>78</v>
@@ -4627,7 +4633,7 @@
       </c>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="42" t="s">
         <v>80</v>
@@ -4665,7 +4671,7 @@
       </c>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="42" t="s">
         <v>82</v>
@@ -4703,7 +4709,7 @@
       </c>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="42" t="s">
         <v>84</v>
@@ -4741,7 +4747,7 @@
       </c>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="42" t="s">
         <v>86</v>
@@ -4779,7 +4785,7 @@
       </c>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="42" t="s">
         <v>88</v>
@@ -4823,7 +4829,7 @@
       </c>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="42" t="s">
         <v>104</v>
@@ -4859,7 +4865,7 @@
       </c>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="42" t="s">
         <v>105</v>
@@ -4895,7 +4901,7 @@
       </c>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="85" t="s">
         <v>107</v>
@@ -4941,7 +4947,7 @@
       </c>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
@@ -4953,7 +4959,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="D26" s="10"/>
       <c r="F26" s="10"/>
@@ -4965,7 +4971,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="C27" s="51" t="s">
         <v>122</v>
@@ -4981,7 +4987,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="D28" s="10"/>
       <c r="F28" s="10"/>
@@ -4993,7 +4999,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="D29" s="10"/>
       <c r="F29" s="10"/>
@@ -5005,7 +5011,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="D30" s="10"/>
       <c r="F30" s="10"/>
@@ -5017,7 +5023,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="D31" s="10"/>
       <c r="F31" s="10"/>
@@ -5029,7 +5035,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="D32" s="10"/>
       <c r="F32" s="10"/>
@@ -5041,7 +5047,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="D33" s="10"/>
       <c r="F33" s="10"/>
@@ -5053,7 +5059,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="D34" s="10"/>
       <c r="F34" s="10"/>
@@ -5065,7 +5071,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="D35" s="10"/>
       <c r="F35" s="10"/>
@@ -5077,7 +5083,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="D36" s="23" t="s">
         <v>46</v>
@@ -5091,7 +5097,7 @@
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="C37" s="24" t="s">
         <v>116</v>
@@ -5108,7 +5114,7 @@
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="C38" s="26" t="s">
         <v>117</v>
@@ -5125,7 +5131,7 @@
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="C39" s="28"/>
       <c r="D39" s="29"/>
@@ -5142,45 +5148,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="14" max="14" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="115" t="s">
         <v>150</v>
       </c>
       <c r="K2" s="69"/>
     </row>
-    <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="113"/>
       <c r="K3" s="69"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="116" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B5" s="114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="69" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D16" s="70" t="s">
         <v>145</v>
       </c>
@@ -5212,30 +5218,30 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.28515625" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.33203125" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="B1" s="30" t="s">
         <v>93</v>
       </c>
@@ -5253,7 +5259,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="str">
         <f>EnergyBalance!D2</f>
@@ -5283,7 +5289,7 @@
       <c r="R2" s="103"/>
       <c r="S2" s="103"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="K3" s="104" t="s">
         <v>7</v>
       </c>
@@ -5312,7 +5318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
       <c r="K4" s="106" t="s">
         <v>39</v>
@@ -5342,7 +5348,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="K5" s="107" t="s">
         <v>92</v>
       </c>
@@ -5364,7 +5370,7 @@
       <c r="R5" s="107"/>
       <c r="S5" s="107"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="K6" s="12"/>
       <c r="L6" s="6"/>
       <c r="M6" s="12"/>
@@ -5375,7 +5381,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
@@ -5392,7 +5398,7 @@
       <c r="R7" s="109"/>
       <c r="S7" s="109"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -5445,7 +5451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
         <v>41</v>
       </c>
@@ -5494,7 +5500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
         <v>108</v>
       </c>
@@ -5526,7 +5532,7 @@
       <c r="R10" s="110"/>
       <c r="S10" s="110"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="str">
         <f>M11</f>
         <v>MINCOA1</v>
@@ -5575,7 +5581,7 @@
       <c r="R11" s="108"/>
       <c r="S11" s="108"/>
     </row>
-    <row r="12" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -5611,7 +5617,7 @@
       <c r="R12" s="108"/>
       <c r="S12" s="108"/>
     </row>
-    <row r="13" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="12" t="str">
         <f>M12</f>
         <v>MINCOA2</v>
@@ -5656,7 +5662,7 @@
       <c r="R13" s="108"/>
       <c r="S13" s="108"/>
     </row>
-    <row r="14" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -5694,7 +5700,7 @@
       <c r="R14" s="108"/>
       <c r="S14" s="108"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="12" t="str">
         <f>M13</f>
@@ -5738,7 +5744,7 @@
       <c r="S15" s="108"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="12" t="str">
         <f>M14</f>
@@ -5767,7 +5773,7 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="str">
         <f>M15</f>
         <v>EXPCOA1</v>
@@ -5800,7 +5806,7 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -5819,7 +5825,7 @@
       <c r="J18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19"/>
       <c r="E19"/>
       <c r="F19"/>
@@ -5828,7 +5834,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -5838,7 +5844,7 @@
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -5848,7 +5854,7 @@
       <c r="H21"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="67"/>
       <c r="C22" s="1" t="s">
@@ -5857,7 +5863,7 @@
       <c r="J22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="66"/>
       <c r="C23" s="1" t="s">
@@ -5865,10 +5871,10 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -5890,14 +5896,14 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="J26" s="6"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -5919,7 +5925,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -5940,7 +5946,7 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -5960,7 +5966,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -5971,7 +5977,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -5982,7 +5988,7 @@
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -5993,7 +5999,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -6013,11 +6019,11 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
     </row>
   </sheetData>
@@ -6037,30 +6043,30 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" customWidth="1"/>
+    <col min="20" max="20" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="13" t="s">
         <v>93</v>
       </c>
@@ -6080,7 +6086,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="34" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -6116,7 +6122,7 @@
       <c r="S2" s="103"/>
       <c r="T2" s="103"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.15">
       <c r="L3" s="104" t="s">
         <v>7</v>
       </c>
@@ -6145,7 +6151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" s="6" customFormat="1" ht="26" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -6179,7 +6185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
@@ -6206,7 +6212,7 @@
       <c r="S5" s="107"/>
       <c r="T5" s="107"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
@@ -6227,7 +6233,7 @@
       <c r="S8" s="109"/>
       <c r="T8" s="109"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="77" t="s">
         <v>1</v>
       </c>
@@ -6283,7 +6289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="s">
         <v>41</v>
       </c>
@@ -6339,7 +6345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="s">
         <v>108</v>
       </c>
@@ -6374,7 +6380,7 @@
       <c r="S11" s="106"/>
       <c r="T11" s="106"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B12" t="str">
         <f>N12</f>
         <v>DTPSCOA</v>
@@ -6428,7 +6434,7 @@
       <c r="S12" s="108"/>
       <c r="T12" s="108"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
       <c r="D13" s="6"/>
       <c r="E13" s="83"/>
       <c r="F13" s="84"/>
@@ -6446,7 +6452,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="20"/>
@@ -6465,7 +6471,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B15" s="8"/>
       <c r="E15" s="20"/>
       <c r="F15" s="81"/>
@@ -6483,7 +6489,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -6499,7 +6505,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -6515,7 +6521,7 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
       <c r="I18" s="76"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -6527,7 +6533,7 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
       <c r="I19" s="76"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -6539,7 +6545,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -6550,7 +6556,7 @@
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -6561,7 +6567,7 @@
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -6572,28 +6578,28 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B23" s="45"/>
       <c r="C23" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B24" s="66"/>
       <c r="C24" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
       <c r="K28" s="1"/>
     </row>
   </sheetData>
@@ -6611,19 +6617,19 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="13" t="s">
         <v>93</v>
       </c>
@@ -6640,7 +6646,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>103</v>
       </c>
@@ -6655,7 +6661,7 @@
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -6667,7 +6673,7 @@
       <c r="I5" s="82"/>
       <c r="J5" s="82"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>100</v>
       </c>
@@ -6686,7 +6692,7 @@
       <c r="I6" s="96"/>
       <c r="J6" s="82"/>
     </row>
-    <row r="7" spans="2:10" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="17" t="s">
         <v>101</v>
       </c>
@@ -6705,7 +6711,7 @@
       <c r="I7" s="97"/>
       <c r="J7" s="82"/>
     </row>
-    <row r="8" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
         <v>108</v>
       </c>
@@ -6721,7 +6727,7 @@
       <c r="I8" s="97"/>
       <c r="J8" s="82"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="33" t="s">
         <v>34</v>
       </c>
@@ -6742,21 +6748,21 @@
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F10" s="82"/>
       <c r="G10" s="82"/>
       <c r="H10" s="82"/>
       <c r="I10" s="82"/>
       <c r="J10" s="82"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F11" s="82"/>
       <c r="G11" s="95"/>
       <c r="H11" s="95"/>
       <c r="I11" s="95"/>
       <c r="J11" s="82"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E12" s="32"/>
       <c r="F12" s="82"/>
       <c r="G12" s="82"/>
@@ -6764,7 +6770,7 @@
       <c r="I12" s="82"/>
       <c r="J12" s="82"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E13" s="10"/>
       <c r="F13" s="82"/>
       <c r="G13" s="82"/>
@@ -6772,14 +6778,14 @@
       <c r="I13" s="82"/>
       <c r="J13" s="82"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
       <c r="H14" s="82"/>
       <c r="I14" s="82"/>
       <c r="J14" s="82"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E15" s="10"/>
       <c r="F15" s="82"/>
       <c r="G15" s="82"/>
@@ -6787,27 +6793,27 @@
       <c r="I15" s="82"/>
       <c r="J15" s="82"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F16" s="82"/>
       <c r="G16" s="82"/>
       <c r="H16" s="82"/>
       <c r="I16" s="82"/>
       <c r="J16" s="82"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F17" s="82"/>
       <c r="G17" s="82"/>
       <c r="H17" s="82"/>
       <c r="I17" s="82"/>
       <c r="J17" s="82"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="45"/>
       <c r="C21" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="66"/>
       <c r="C22" s="1" t="s">
         <v>124</v>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdamV/Desktop/Bachelor/GitHub/Bachelor_Git/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786ECDBE-551B-E045-8031-B0105FB8907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24580" windowHeight="15540" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="17016" windowHeight="12816" tabRatio="901"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -25,7 +19,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,14 +58,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="P3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -211,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="Q3" authorId="2">
       <text>
         <r>
           <rPr>
@@ -284,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="R3" authorId="2">
       <text>
         <r>
           <rPr>
@@ -337,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="S3" authorId="2">
       <text>
         <r>
           <rPr>
@@ -370,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="I8" authorId="2">
       <text>
         <r>
           <rPr>
@@ -417,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="Q8" authorId="2">
       <text>
         <r>
           <rPr>
@@ -510,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="R8" authorId="1">
       <text>
         <r>
           <rPr>
@@ -535,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="S8" authorId="2">
       <text>
         <r>
           <rPr>
@@ -598,7 +592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="K9" authorId="2">
       <text>
         <r>
           <rPr>
@@ -846,14 +840,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -967,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="Q3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -993,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="R3" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="S3" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1119,7 +1113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="T3" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1152,7 +1146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="R9" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1245,7 +1239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="S9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1270,7 +1264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="T9" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1333,7 +1327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="L10" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1581,7 +1575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="154">
   <si>
     <t>CommName</t>
   </si>
@@ -2040,16 +2034,19 @@
   </si>
   <si>
     <t>Heyy</t>
+  </si>
+  <si>
+    <t>Jeppa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="General_)"/>
-    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -2511,7 +2508,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2528,7 +2525,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2628,7 +2625,7 @@
     <xf numFmtId="1" fontId="15" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2638,19 +2635,19 @@
     <xf numFmtId="1" fontId="15" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2690,13 +2687,13 @@
     <xf numFmtId="1" fontId="15" fillId="6" borderId="15" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2719,66 +2716,66 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="33">
-    <cellStyle name="20 % - Farve5" xfId="1" builtinId="46"/>
-    <cellStyle name="20% - Accent5 2" xfId="21" xr:uid="{31757489-FEFA-449A-A288-159658577717}"/>
-    <cellStyle name="60 % - Farve2" xfId="2" builtinId="36"/>
+    <cellStyle name="20 % - Markeringsfarve5" xfId="1" builtinId="46"/>
+    <cellStyle name="20% - Accent5 2" xfId="21"/>
+    <cellStyle name="60 % - Markeringsfarve2" xfId="2" builtinId="36"/>
     <cellStyle name="Beregning" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Comma 2 2" xfId="22" xr:uid="{992F3F54-BB44-4021-B091-4DBD5F448EEB}"/>
-    <cellStyle name="Farve2" xfId="3" builtinId="33"/>
+    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2 2" xfId="22"/>
     <cellStyle name="God" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
+    <cellStyle name="Markeringsfarve2" xfId="3" builtinId="33"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 10 2" xfId="23" xr:uid="{5EA17536-A712-4781-BCCF-ECAF33BF8BC7}"/>
-    <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 2 2" xfId="24" xr:uid="{7CCD0894-C5F5-4C40-B0A7-C63083B598FB}"/>
-    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="26" xr:uid="{D2ED2190-9585-4E0D-B1BF-2666A5D955EF}"/>
-    <cellStyle name="Normal 4 3" xfId="25" xr:uid="{B4CC5CDE-9B48-4884-A55D-FAF2CCC9E0C1}"/>
-    <cellStyle name="Normal 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal 8 2" xfId="27" xr:uid="{5BD2B853-133D-4D16-BC10-146423763DB9}"/>
-    <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normal 9 2 2" xfId="28" xr:uid="{35EF86F0-C879-4B2F-B6FC-19AD89FDFA92}"/>
-    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Percent 2 2" xfId="30" xr:uid="{2FE97164-82E7-4FA2-8926-A7BFE3C6AA9F}"/>
-    <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Percent 3 2" xfId="31" xr:uid="{371B735E-ABC9-4C25-BBF8-16A9CA2AF31F}"/>
-    <cellStyle name="Percent 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Percent 4 2" xfId="32" xr:uid="{7844C6FD-8CE1-4C55-9B62-6B4D09A64D22}"/>
-    <cellStyle name="Percent 5" xfId="29" xr:uid="{C2C75864-05DE-416D-AF41-9F9069182A66}"/>
+    <cellStyle name="Normal 10" xfId="9"/>
+    <cellStyle name="Normal 10 2" xfId="23"/>
+    <cellStyle name="Normal 2" xfId="10"/>
+    <cellStyle name="Normal 2 2" xfId="24"/>
+    <cellStyle name="Normal 4" xfId="11"/>
+    <cellStyle name="Normal 4 2" xfId="12"/>
+    <cellStyle name="Normal 4 2 2" xfId="26"/>
+    <cellStyle name="Normal 4 3" xfId="25"/>
+    <cellStyle name="Normal 8" xfId="13"/>
+    <cellStyle name="Normal 8 2" xfId="27"/>
+    <cellStyle name="Normal 9 2" xfId="14"/>
+    <cellStyle name="Normal 9 2 2" xfId="28"/>
+    <cellStyle name="Normale_B2020" xfId="15"/>
+    <cellStyle name="Percent 2" xfId="17"/>
+    <cellStyle name="Percent 2 2" xfId="30"/>
+    <cellStyle name="Percent 3" xfId="18"/>
+    <cellStyle name="Percent 3 2" xfId="31"/>
+    <cellStyle name="Percent 4" xfId="19"/>
+    <cellStyle name="Percent 4 2" xfId="32"/>
+    <cellStyle name="Percent 5" xfId="29"/>
     <cellStyle name="Procent" xfId="16" builtinId="5"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2813,7 +2810,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE54FD63-60E6-4767-B378-86CE61C6FB61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE54FD63-60E6-4767-B378-86CE61C6FB61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,7 +2901,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{990E7F65-5119-4650-B5C2-821A0202B5DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{990E7F65-5119-4650-B5C2-821A0202B5DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2987,7 +2984,7 @@
         <xdr:cNvPr id="55000" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8EE95EE-CAF2-4CCA-BF63-C24FE5C72499}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8EE95EE-CAF2-4CCA-BF63-C24FE5C72499}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3061,7 +3058,7 @@
         <xdr:cNvPr id="55001" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E49606E-175D-4BCB-AAC7-477983161C3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E49606E-175D-4BCB-AAC7-477983161C3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3135,7 +3132,7 @@
         <xdr:cNvPr id="55003" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E9394C-7511-41D1-9C2B-0F9B07025FEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8E9394C-7511-41D1-9C2B-0F9B07025FEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3209,7 +3206,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8C2F45-F629-41AF-B939-F38637CAC594}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B8C2F45-F629-41AF-B939-F38637CAC594}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3258,7 +3255,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F0519-A3A7-46AD-ADDA-3FEAC7CB9EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{175F0519-A3A7-46AD-ADDA-3FEAC7CB9EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3372,7 +3369,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA526C4-1FCA-4856-8834-3BCE914C093D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AA526C4-1FCA-4856-8834-3BCE914C093D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3531,7 +3528,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166FA24F-8A75-4C94-AE32-6D4C54F470CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{166FA24F-8A75-4C94-AE32-6D4C54F470CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4101,24 +4098,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
     <col min="7" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.5" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
-    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
@@ -4126,7 +4123,7 @@
     <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P1" s="22" t="s">
         <v>111</v>
       </c>
@@ -4140,11 +4137,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="D2" s="40" t="s">
         <v>46</v>
       </c>
@@ -4182,7 +4181,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
       <c r="C3" s="9"/>
       <c r="D3" s="41" t="s">
         <v>54</v>
@@ -4213,7 +4212,7 @@
       </c>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C4" s="89" t="s">
         <v>61</v>
       </c>
@@ -4228,7 +4227,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
         <v>62</v>
       </c>
@@ -4266,7 +4265,7 @@
       <c r="M5" s="6"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
         <v>64</v>
       </c>
@@ -4303,7 +4302,7 @@
       </c>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="42" t="s">
         <v>66</v>
       </c>
@@ -4341,7 +4340,7 @@
       <c r="M7" s="6"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="85" t="s">
         <v>142</v>
       </c>
@@ -4386,7 +4385,7 @@
       </c>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="35"/>
       <c r="C9" s="91" t="s">
         <v>68</v>
@@ -4402,7 +4401,7 @@
       <c r="L9" s="56"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="42" t="s">
         <v>69</v>
       </c>
@@ -4439,7 +4438,7 @@
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="42" t="s">
         <v>53</v>
       </c>
@@ -4476,7 +4475,7 @@
       </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="42" t="s">
         <v>72</v>
       </c>
@@ -4513,7 +4512,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" s="42" t="s">
         <v>74</v>
       </c>
@@ -4536,7 +4535,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="35"/>
       <c r="C14" s="55" t="s">
         <v>76</v>
@@ -4579,7 +4578,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="35"/>
       <c r="C15" s="91" t="s">
         <v>77</v>
@@ -4595,7 +4594,7 @@
       <c r="L15" s="56"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="42" t="s">
         <v>78</v>
@@ -4633,7 +4632,7 @@
       </c>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="42" t="s">
         <v>80</v>
@@ -4671,7 +4670,7 @@
       </c>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="42" t="s">
         <v>82</v>
@@ -4709,7 +4708,7 @@
       </c>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="42" t="s">
         <v>84</v>
@@ -4747,7 +4746,7 @@
       </c>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="42" t="s">
         <v>86</v>
@@ -4785,7 +4784,7 @@
       </c>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="42" t="s">
         <v>88</v>
@@ -4829,7 +4828,7 @@
       </c>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="42" t="s">
         <v>104</v>
@@ -4865,7 +4864,7 @@
       </c>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="42" t="s">
         <v>105</v>
@@ -4901,7 +4900,7 @@
       </c>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="85" t="s">
         <v>107</v>
@@ -4947,7 +4946,7 @@
       </c>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
@@ -4959,7 +4958,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="D26" s="10"/>
       <c r="F26" s="10"/>
@@ -4971,7 +4970,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="C27" s="51" t="s">
         <v>122</v>
@@ -4987,7 +4986,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="D28" s="10"/>
       <c r="F28" s="10"/>
@@ -4999,7 +4998,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="D29" s="10"/>
       <c r="F29" s="10"/>
@@ -5011,7 +5010,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="D30" s="10"/>
       <c r="F30" s="10"/>
@@ -5023,7 +5022,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="D31" s="10"/>
       <c r="F31" s="10"/>
@@ -5035,7 +5034,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="D32" s="10"/>
       <c r="F32" s="10"/>
@@ -5047,7 +5046,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="D33" s="10"/>
       <c r="F33" s="10"/>
@@ -5059,7 +5058,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="D34" s="10"/>
       <c r="F34" s="10"/>
@@ -5071,7 +5070,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="D35" s="10"/>
       <c r="F35" s="10"/>
@@ -5083,7 +5082,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="D36" s="23" t="s">
         <v>46</v>
@@ -5097,7 +5096,7 @@
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="C37" s="24" t="s">
         <v>116</v>
@@ -5114,7 +5113,7 @@
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="C38" s="26" t="s">
         <v>117</v>
@@ -5131,7 +5130,7 @@
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="C39" s="28"/>
       <c r="D39" s="29"/>
@@ -5145,48 +5144,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="1" max="1" width="1.77734375" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" customWidth="1"/>
-    <col min="14" max="14" width="5.5" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="115" t="s">
         <v>150</v>
       </c>
       <c r="K2" s="69"/>
     </row>
-    <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="113"/>
       <c r="K3" s="69"/>
     </row>
-    <row r="4" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="116" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="69" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D16" s="70" t="s">
         <v>145</v>
       </c>
@@ -5211,37 +5210,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" customWidth="1"/>
-    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34.33203125" customWidth="1"/>
-    <col min="15" max="15" width="6.1640625" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="30" t="s">
         <v>93</v>
       </c>
@@ -5259,7 +5258,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="str">
         <f>EnergyBalance!D2</f>
@@ -5289,7 +5288,7 @@
       <c r="R2" s="103"/>
       <c r="S2" s="103"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K3" s="104" t="s">
         <v>7</v>
       </c>
@@ -5318,7 +5317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="K4" s="106" t="s">
         <v>39</v>
@@ -5348,7 +5347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K5" s="107" t="s">
         <v>92</v>
       </c>
@@ -5370,7 +5369,7 @@
       <c r="R5" s="107"/>
       <c r="S5" s="107"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K6" s="12"/>
       <c r="L6" s="6"/>
       <c r="M6" s="12"/>
@@ -5381,7 +5380,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
@@ -5398,7 +5397,7 @@
       <c r="R7" s="109"/>
       <c r="S7" s="109"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -5451,7 +5450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>41</v>
       </c>
@@ -5500,7 +5499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>108</v>
       </c>
@@ -5532,7 +5531,7 @@
       <c r="R10" s="110"/>
       <c r="S10" s="110"/>
     </row>
-    <row r="11" spans="1:20" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="str">
         <f>M11</f>
         <v>MINCOA1</v>
@@ -5581,7 +5580,7 @@
       <c r="R11" s="108"/>
       <c r="S11" s="108"/>
     </row>
-    <row r="12" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -5617,7 +5616,7 @@
       <c r="R12" s="108"/>
       <c r="S12" s="108"/>
     </row>
-    <row r="13" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="str">
         <f>M12</f>
         <v>MINCOA2</v>
@@ -5662,7 +5661,7 @@
       <c r="R13" s="108"/>
       <c r="S13" s="108"/>
     </row>
-    <row r="14" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -5700,7 +5699,7 @@
       <c r="R14" s="108"/>
       <c r="S14" s="108"/>
     </row>
-    <row r="15" spans="1:20" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="12" t="str">
         <f>M13</f>
@@ -5744,7 +5743,7 @@
       <c r="S15" s="108"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="12" t="str">
         <f>M14</f>
@@ -5773,7 +5772,7 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="str">
         <f>M15</f>
         <v>EXPCOA1</v>
@@ -5806,7 +5805,7 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -5825,7 +5824,7 @@
       <c r="J18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="E19"/>
       <c r="F19"/>
@@ -5834,7 +5833,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -5844,7 +5843,7 @@
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -5854,7 +5853,7 @@
       <c r="H21"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="67"/>
       <c r="C22" s="1" t="s">
@@ -5863,7 +5862,7 @@
       <c r="J22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="66"/>
       <c r="C23" s="1" t="s">
@@ -5871,10 +5870,10 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -5896,14 +5895,14 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J26" s="6"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -5925,7 +5924,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -5946,7 +5945,7 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -5966,7 +5965,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -5977,7 +5976,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -5988,7 +5987,7 @@
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -5999,7 +5998,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -6019,11 +6018,11 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
     </row>
   </sheetData>
@@ -6036,37 +6035,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.6640625" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.1640625" customWidth="1"/>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.83203125" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" customWidth="1"/>
     <col min="17" max="17" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.5" customWidth="1"/>
-    <col min="19" max="19" width="13.83203125" customWidth="1"/>
-    <col min="20" max="20" width="8.5" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" customWidth="1"/>
+    <col min="19" max="19" width="13.77734375" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
         <v>93</v>
       </c>
@@ -6086,7 +6085,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -6122,7 +6121,7 @@
       <c r="S2" s="103"/>
       <c r="T2" s="103"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L3" s="104" t="s">
         <v>7</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="6" customFormat="1" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" s="6" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -6185,7 +6184,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
@@ -6212,7 +6211,7 @@
       <c r="S5" s="107"/>
       <c r="T5" s="107"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
@@ -6233,7 +6232,7 @@
       <c r="S8" s="109"/>
       <c r="T8" s="109"/>
     </row>
-    <row r="9" spans="2:20" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="77" t="s">
         <v>1</v>
       </c>
@@ -6289,7 +6288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>41</v>
       </c>
@@ -6345,7 +6344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>108</v>
       </c>
@@ -6380,7 +6379,7 @@
       <c r="S11" s="106"/>
       <c r="T11" s="106"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>N12</f>
         <v>DTPSCOA</v>
@@ -6434,7 +6433,7 @@
       <c r="S12" s="108"/>
       <c r="T12" s="108"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
       <c r="E13" s="83"/>
       <c r="F13" s="84"/>
@@ -6452,7 +6451,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="20"/>
@@ -6471,7 +6470,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="E15" s="20"/>
       <c r="F15" s="81"/>
@@ -6489,7 +6488,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -6505,7 +6504,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -6521,7 +6520,7 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I18" s="76"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -6533,7 +6532,7 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I19" s="76"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -6545,7 +6544,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -6556,7 +6555,7 @@
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -6567,7 +6566,7 @@
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -6578,28 +6577,28 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="45"/>
       <c r="C23" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="66"/>
       <c r="C24" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K28" s="1"/>
     </row>
   </sheetData>
@@ -6610,26 +6609,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.44140625" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
         <v>93</v>
       </c>
@@ -6646,7 +6645,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
         <v>103</v>
       </c>
@@ -6661,7 +6660,7 @@
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -6673,7 +6672,7 @@
       <c r="I5" s="82"/>
       <c r="J5" s="82"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>100</v>
       </c>
@@ -6692,7 +6691,7 @@
       <c r="I6" s="96"/>
       <c r="J6" s="82"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>101</v>
       </c>
@@ -6711,7 +6710,7 @@
       <c r="I7" s="97"/>
       <c r="J7" s="82"/>
     </row>
-    <row r="8" spans="2:10" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
         <v>108</v>
       </c>
@@ -6727,7 +6726,7 @@
       <c r="I8" s="97"/>
       <c r="J8" s="82"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="33" t="s">
         <v>34</v>
       </c>
@@ -6748,21 +6747,21 @@
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F10" s="82"/>
       <c r="G10" s="82"/>
       <c r="H10" s="82"/>
       <c r="I10" s="82"/>
       <c r="J10" s="82"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F11" s="82"/>
       <c r="G11" s="95"/>
       <c r="H11" s="95"/>
       <c r="I11" s="95"/>
       <c r="J11" s="82"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E12" s="32"/>
       <c r="F12" s="82"/>
       <c r="G12" s="82"/>
@@ -6770,7 +6769,7 @@
       <c r="I12" s="82"/>
       <c r="J12" s="82"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E13" s="10"/>
       <c r="F13" s="82"/>
       <c r="G13" s="82"/>
@@ -6778,14 +6777,14 @@
       <c r="I13" s="82"/>
       <c r="J13" s="82"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
       <c r="H14" s="82"/>
       <c r="I14" s="82"/>
       <c r="J14" s="82"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E15" s="10"/>
       <c r="F15" s="82"/>
       <c r="G15" s="82"/>
@@ -6793,27 +6792,27 @@
       <c r="I15" s="82"/>
       <c r="J15" s="82"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F16" s="82"/>
       <c r="G16" s="82"/>
       <c r="H16" s="82"/>
       <c r="I16" s="82"/>
       <c r="J16" s="82"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F17" s="82"/>
       <c r="G17" s="82"/>
       <c r="H17" s="82"/>
       <c r="I17" s="82"/>
       <c r="J17" s="82"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="45"/>
       <c r="C21" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="66"/>
       <c r="C22" s="1" t="s">
         <v>124</v>

--- a/VT_REG_PRI_V01.xlsx
+++ b/VT_REG_PRI_V01.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdamV/Desktop/Bachelor/GitHub/Bachelor_Git/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD687C0-B69A-604E-BBE0-CEAC06A856D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="17016" windowHeight="12816" tabRatio="901"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17020" windowHeight="12820" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -19,7 +25,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C19" authorId="0">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,14 +64,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -205,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -364,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2">
+    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -411,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -504,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1">
+    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -529,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2">
+    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -592,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2">
+    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -840,14 +846,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -961,7 +967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1">
+    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -987,7 +993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1060,7 +1066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1113,7 +1119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1146,7 +1152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1239,7 +1245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1">
+    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1264,7 +1270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1327,7 +1333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2">
+    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1575,7 +1581,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="153">
   <si>
     <t>CommName</t>
   </si>
@@ -2034,19 +2040,16 @@
   </si>
   <si>
     <t>Heyy</t>
-  </si>
-  <si>
-    <t>Jeppa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="General_)"/>
-    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="General_)"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -2508,7 +2511,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2525,7 +2528,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2625,7 +2628,7 @@
     <xf numFmtId="1" fontId="15" fillId="6" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2635,19 +2638,19 @@
     <xf numFmtId="1" fontId="15" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2687,13 +2690,13 @@
     <xf numFmtId="1" fontId="15" fillId="6" borderId="15" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2716,66 +2719,66 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="20" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="33">
-    <cellStyle name="20 % - Markeringsfarve5" xfId="1" builtinId="46"/>
-    <cellStyle name="20% - Accent5 2" xfId="21"/>
-    <cellStyle name="60 % - Markeringsfarve2" xfId="2" builtinId="36"/>
+    <cellStyle name="20 % - Farve5" xfId="1" builtinId="46"/>
+    <cellStyle name="20% - Accent5 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="60 % - Farve2" xfId="2" builtinId="36"/>
     <cellStyle name="Beregning" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="5"/>
-    <cellStyle name="Comma 2 2" xfId="22"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Farve2" xfId="3" builtinId="33"/>
     <cellStyle name="God" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
-    <cellStyle name="Markeringsfarve2" xfId="3" builtinId="33"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="9"/>
-    <cellStyle name="Normal 10 2" xfId="23"/>
-    <cellStyle name="Normal 2" xfId="10"/>
-    <cellStyle name="Normal 2 2" xfId="24"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal 4 2" xfId="12"/>
-    <cellStyle name="Normal 4 2 2" xfId="26"/>
-    <cellStyle name="Normal 4 3" xfId="25"/>
-    <cellStyle name="Normal 8" xfId="13"/>
-    <cellStyle name="Normal 8 2" xfId="27"/>
-    <cellStyle name="Normal 9 2" xfId="14"/>
-    <cellStyle name="Normal 9 2 2" xfId="28"/>
-    <cellStyle name="Normale_B2020" xfId="15"/>
-    <cellStyle name="Percent 2" xfId="17"/>
-    <cellStyle name="Percent 2 2" xfId="30"/>
-    <cellStyle name="Percent 3" xfId="18"/>
-    <cellStyle name="Percent 3 2" xfId="31"/>
-    <cellStyle name="Percent 4" xfId="19"/>
-    <cellStyle name="Percent 4 2" xfId="32"/>
-    <cellStyle name="Percent 5" xfId="29"/>
+    <cellStyle name="Normal 10" xfId="9" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 10 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 4 3" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 8" xfId="13" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 8 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 9 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Percent 3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Percent 4" xfId="19" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Percent 4 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Percent 5" xfId="29" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="Procent" xfId="16" builtinId="5"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="20"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="20" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2810,7 +2813,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE54FD63-60E6-4767-B378-86CE61C6FB61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE54FD63-60E6-4767-B378-86CE61C6FB61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2901,7 +2904,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{990E7F65-5119-4650-B5C2-821A0202B5DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{990E7F65-5119-4650-B5C2-821A0202B5DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2984,7 +2987,7 @@
         <xdr:cNvPr id="55000" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8EE95EE-CAF2-4CCA-BF63-C24FE5C72499}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8EE95EE-CAF2-4CCA-BF63-C24FE5C72499}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3058,7 +3061,7 @@
         <xdr:cNvPr id="55001" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E49606E-175D-4BCB-AAC7-477983161C3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E49606E-175D-4BCB-AAC7-477983161C3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3132,7 +3135,7 @@
         <xdr:cNvPr id="55003" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8E9394C-7511-41D1-9C2B-0F9B07025FEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E9394C-7511-41D1-9C2B-0F9B07025FEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,7 +3209,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B8C2F45-F629-41AF-B939-F38637CAC594}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8C2F45-F629-41AF-B939-F38637CAC594}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3258,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{175F0519-A3A7-46AD-ADDA-3FEAC7CB9EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175F0519-A3A7-46AD-ADDA-3FEAC7CB9EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3372,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AA526C4-1FCA-4856-8834-3BCE914C093D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA526C4-1FCA-4856-8834-3BCE914C093D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3528,7 +3531,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{166FA24F-8A75-4C94-AE32-6D4C54F470CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166FA24F-8A75-4C94-AE32-6D4C54F470CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4098,24 +4101,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
@@ -4123,7 +4126,7 @@
     <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="P1" s="22" t="s">
         <v>111</v>
       </c>
@@ -4137,13 +4140,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="C2" s="7"/>
       <c r="D2" s="40" t="s">
         <v>46</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="28" x14ac:dyDescent="0.15">
       <c r="C3" s="9"/>
       <c r="D3" s="41" t="s">
         <v>54</v>
@@ -4212,7 +4213,7 @@
       </c>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C4" s="89" t="s">
         <v>61</v>
       </c>
@@ -4227,7 +4228,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="42" t="s">
         <v>62</v>
       </c>
@@ -4265,7 +4266,7 @@
       <c r="M5" s="6"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="42" t="s">
         <v>64</v>
       </c>
@@ -4302,7 +4303,7 @@
       </c>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="42" t="s">
         <v>66</v>
       </c>
@@ -4340,7 +4341,7 @@
       <c r="M7" s="6"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="85" t="s">
         <v>142</v>
       </c>
@@ -4385,7 +4386,7 @@
       </c>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B9" s="35"/>
       <c r="C9" s="91" t="s">
         <v>68</v>
@@ -4401,7 +4402,7 @@
       <c r="L9" s="56"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B10" s="42" t="s">
         <v>69</v>
       </c>
@@ -4438,7 +4439,7 @@
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B11" s="42" t="s">
         <v>53</v>
       </c>
@@ -4475,7 +4476,7 @@
       </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B12" s="42" t="s">
         <v>72</v>
       </c>
@@ -4512,7 +4513,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B13" s="42" t="s">
         <v>74</v>
       </c>
@@ -4535,7 +4536,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="35"/>
       <c r="C14" s="55" t="s">
         <v>76</v>
@@ -4578,7 +4579,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B15" s="35"/>
       <c r="C15" s="91" t="s">
         <v>77</v>
@@ -4594,7 +4595,7 @@
       <c r="L15" s="56"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="42" t="s">
         <v>78</v>
@@ -4632,7 +4633,7 @@
       </c>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="42" t="s">
         <v>80</v>
@@ -4670,7 +4671,7 @@
       </c>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="42" t="s">
         <v>82</v>
@@ -4708,7 +4709,7 @@
       </c>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="42" t="s">
         <v>84</v>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="42" t="s">
         <v>86</v>
@@ -4784,7 +4785,7 @@
       </c>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="42" t="s">
         <v>88</v>
@@ -4828,7 +4829,7 @@
       </c>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="42" t="s">
         <v>104</v>
@@ -4864,7 +4865,7 @@
       </c>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="42" t="s">
         <v>105</v>
@@ -4900,7 +4901,7 @@
       </c>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="85" t="s">
         <v>107</v>
@@ -4946,7 +4947,7 @@
       </c>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="D25" s="10"/>
       <c r="F25" s="10"/>
@@ -4958,7 +4959,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="D26" s="10"/>
       <c r="F26" s="10"/>
@@ -4970,7 +4971,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="C27" s="51" t="s">
         <v>122</v>
@@ -4986,7 +4987,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="D28" s="10"/>
       <c r="F28" s="10"/>
@@ -4998,7 +4999,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="D29" s="10"/>
       <c r="F29" s="10"/>
@@ -5010,7 +5011,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="D30" s="10"/>
       <c r="F30" s="10"/>
@@ -5022,7 +5023,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="D31" s="10"/>
       <c r="F31" s="10"/>
@@ -5034,7 +5035,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="D32" s="10"/>
       <c r="F32" s="10"/>
@@ -5046,7 +5047,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="D33" s="10"/>
       <c r="F33" s="10"/>
@@ -5058,7 +5059,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="D34" s="10"/>
       <c r="F34" s="10"/>
@@ -5070,7 +5071,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="D35" s="10"/>
       <c r="F35" s="10"/>
@@ -5082,7 +5083,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="D36" s="23" t="s">
         <v>46</v>
@@ -5096,7 +5097,7 @@
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="C37" s="24" t="s">
         <v>116</v>
@@ -5113,7 +5114,7 @@
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="C38" s="26" t="s">
         <v>117</v>
@@ -5130,7 +5131,7 @@
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="C39" s="28"/>
       <c r="D39" s="29"/>
@@ -5144,48 +5145,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:P16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" customWidth="1"/>
-    <col min="14" max="14" width="5.44140625" customWidth="1"/>
+    <col min="14" max="14" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="115" t="s">
         <v>150</v>
       </c>
       <c r="K2" s="69"/>
     </row>
-    <row r="3" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="113"/>
       <c r="K3" s="69"/>
     </row>
-    <row r="4" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="116" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B5" s="114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="69" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
       <c r="D16" s="70" t="s">
         <v>145</v>
       </c>
@@ -5210,37 +5211,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34.33203125" customWidth="1"/>
-    <col min="15" max="15" width="6.109375" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" customWidth="1"/>
-    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="B1" s="30" t="s">
         <v>93</v>
       </c>
@@ -5258,7 +5259,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="str">
         <f>EnergyBalance!D2</f>
@@ -5288,7 +5289,7 @@
       <c r="R2" s="103"/>
       <c r="S2" s="103"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="K3" s="104" t="s">
         <v>7</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
       <c r="K4" s="106" t="s">
         <v>39</v>
@@ -5347,7 +5348,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="K5" s="107" t="s">
         <v>92</v>
       </c>
@@ -5369,7 +5370,7 @@
       <c r="R5" s="107"/>
       <c r="S5" s="107"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="K6" s="12"/>
       <c r="L6" s="6"/>
       <c r="M6" s="12"/>
@@ -5380,7 +5381,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
@@ -5397,7 +5398,7 @@
       <c r="R7" s="109"/>
       <c r="S7" s="109"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -5450,7 +5451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
         <v>41</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
         <v>108</v>
       </c>
@@ -5531,7 +5532,7 @@
       <c r="R10" s="110"/>
       <c r="S10" s="110"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="str">
         <f>M11</f>
         <v>MINCOA1</v>
@@ -5580,7 +5581,7 @@
       <c r="R11" s="108"/>
       <c r="S11" s="108"/>
     </row>
-    <row r="12" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -5616,7 +5617,7 @@
       <c r="R12" s="108"/>
       <c r="S12" s="108"/>
     </row>
-    <row r="13" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="12" t="str">
         <f>M12</f>
         <v>MINCOA2</v>
@@ -5661,7 +5662,7 @@
       <c r="R13" s="108"/>
       <c r="S13" s="108"/>
     </row>
-    <row r="14" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -5699,7 +5700,7 @@
       <c r="R14" s="108"/>
       <c r="S14" s="108"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="12" t="str">
         <f>M13</f>
@@ -5743,7 +5744,7 @@
       <c r="S15" s="108"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="12" t="str">
         <f>M14</f>
@@ -5772,7 +5773,7 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="str">
         <f>M15</f>
         <v>EXPCOA1</v>
@@ -5805,7 +5806,7 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -5824,7 +5825,7 @@
       <c r="J18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19"/>
       <c r="E19"/>
       <c r="F19"/>
@@ -5833,7 +5834,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -5843,7 +5844,7 @@
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -5853,7 +5854,7 @@
       <c r="H21"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="67"/>
       <c r="C22" s="1" t="s">
@@ -5862,7 +5863,7 @@
       <c r="J22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="66"/>
       <c r="C23" s="1" t="s">
@@ -5870,10 +5871,10 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -5895,14 +5896,14 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="J26" s="6"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -5924,7 +5925,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -5945,7 +5946,7 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -5965,7 +5966,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -5976,7 +5977,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -5987,7 +5988,7 @@
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -5998,7 +5999,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -6018,11 +6019,11 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
     </row>
   </sheetData>
@@ -6035,37 +6036,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.6640625" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.77734375" customWidth="1"/>
+    <col min="13" max="13" width="7.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" customWidth="1"/>
     <col min="17" max="17" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.44140625" customWidth="1"/>
-    <col min="19" max="19" width="13.77734375" customWidth="1"/>
-    <col min="20" max="20" width="8.44140625" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" customWidth="1"/>
+    <col min="20" max="20" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="13" t="s">
         <v>93</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" ht="34" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -6121,7 +6122,7 @@
       <c r="S2" s="103"/>
       <c r="T2" s="103"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.15">
       <c r="L3" s="104" t="s">
         <v>7</v>
       </c>
@@ -6150,7 +6151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="6" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:20" s="6" customFormat="1" ht="26" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -6184,7 +6185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
@@ -6211,7 +6212,7 @@
       <c r="S5" s="107"/>
       <c r="T5" s="107"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
@@ -6232,7 +6233,7 @@
       <c r="S8" s="109"/>
       <c r="T8" s="109"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="77" t="s">
         <v>1</v>
       </c>
@@ -6288,7 +6289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" ht="25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="s">
         <v>41</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="s">
         <v>108</v>
       </c>
@@ -6379,7 +6380,7 @@
       <c r="S11" s="106"/>
       <c r="T11" s="106"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B12" t="str">
         <f>N12</f>
         <v>DTPSCOA</v>
@@ -6433,7 +6434,7 @@
       <c r="S12" s="108"/>
       <c r="T12" s="108"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
       <c r="D13" s="6"/>
       <c r="E13" s="83"/>
       <c r="F13" s="84"/>
@@ -6451,7 +6452,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="20"/>
@@ -6470,7 +6471,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B15" s="8"/>
       <c r="E15" s="20"/>
       <c r="F15" s="81"/>
@@ -6488,7 +6489,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -6504,7 +6505,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -6520,7 +6521,7 @@
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
       <c r="I18" s="76"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -6532,7 +6533,7 @@
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
       <c r="I19" s="76"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -6544,7 +6545,7 @@
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -6555,7 +6556,7 @@
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -6566,7 +6567,7 @@
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -6577,28 +6578,28 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B23" s="45"/>
       <c r="C23" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B24" s="66"/>
       <c r="C24" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
       <c r="K28" s="1"/>
     </row>
   </sheetData>
@@ -6609,26 +6610,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="13" t="s">
         <v>93</v>
       </c>
@@ -6645,7 +6646,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>103</v>
       </c>
@@ -6660,7 +6661,7 @@
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
@@ -6672,7 +6673,7 @@
       <c r="I5" s="82"/>
       <c r="J5" s="82"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>100</v>
       </c>
@@ -6691,7 +6692,7 @@
       <c r="I6" s="96"/>
       <c r="J6" s="82"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="17" t="s">
         <v>101</v>
       </c>
@@ -6710,7 +6711,7 @@
       <c r="I7" s="97"/>
       <c r="J7" s="82"/>
     </row>
-    <row r="8" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
         <v>108</v>
       </c>
@@ -6726,7 +6727,7 @@
       <c r="I8" s="97"/>
       <c r="J8" s="82"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="33" t="s">
         <v>34</v>
       </c>
@@ -6747,21 +6748,21 @@
       <c r="I9" s="82"/>
       <c r="J9" s="82"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F10" s="82"/>
       <c r="G10" s="82"/>
       <c r="H10" s="82"/>
       <c r="I10" s="82"/>
       <c r="J10" s="82"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F11" s="82"/>
       <c r="G11" s="95"/>
       <c r="H11" s="95"/>
       <c r="I11" s="95"/>
       <c r="J11" s="82"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E12" s="32"/>
       <c r="F12" s="82"/>
       <c r="G12" s="82"/>
@@ -6769,7 +6770,7 @@
       <c r="I12" s="82"/>
       <c r="J12" s="82"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E13" s="10"/>
       <c r="F13" s="82"/>
       <c r="G13" s="82"/>
@@ -6777,14 +6778,14 @@
       <c r="I13" s="82"/>
       <c r="J13" s="82"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
       <c r="H14" s="82"/>
       <c r="I14" s="82"/>
       <c r="J14" s="82"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E15" s="10"/>
       <c r="F15" s="82"/>
       <c r="G15" s="82"/>
@@ -6792,27 +6793,27 @@
       <c r="I15" s="82"/>
       <c r="J15" s="82"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F16" s="82"/>
       <c r="G16" s="82"/>
       <c r="H16" s="82"/>
       <c r="I16" s="82"/>
       <c r="J16" s="82"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F17" s="82"/>
       <c r="G17" s="82"/>
       <c r="H17" s="82"/>
       <c r="I17" s="82"/>
       <c r="J17" s="82"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="45"/>
       <c r="C21" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="66"/>
       <c r="C22" s="1" t="s">
         <v>124</v>
